--- a/Assets/Docs/etapas.xlsx
+++ b/Assets/Docs/etapas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t xml:space="preserve">Scene</t>
   </si>
@@ -76,6 +76,18 @@
     <t xml:space="preserve">index</t>
   </si>
   <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modificada, nada agregado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modificada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok, deberia estar antes que muchas otras</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
@@ -95,7 +107,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,28 +129,24 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -147,28 +154,24 @@
       <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -176,7 +179,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -184,14 +186,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -341,8 +341,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L170"/>
+  <dimension ref="A2:N170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J58" activeCellId="0" sqref="J58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J125" activeCellId="0" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
@@ -2833,6 +2837,9 @@
         <f aca="false">ROUND(1/(C97-D97),2)*2 + D97*0.2+ E97*0.2 + F97 * 0.2 + H97 * 0.3 + G97*0.1 + (C97-10)*0.1</f>
         <v>1.06</v>
       </c>
+      <c r="J97" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
@@ -2863,6 +2870,9 @@
         <f aca="false">ROUND(1/(C98-D98),2)*2 + D98*0.2+ E98*0.2 + F98 * 0.2 + H98 * 0.3 + G98*0.1 + (C98-10)*0.1</f>
         <v>1.3</v>
       </c>
+      <c r="J98" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -2893,8 +2903,11 @@
         <f aca="false">ROUND(1/(C99-D99),2)*2 + D99*0.2+ E99*0.2 + F99 * 0.2 + H99 * 0.3 + G99*0.1 + (C99-10)*0.1</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J99" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>4</v>
       </c>
@@ -2923,8 +2936,11 @@
         <f aca="false">ROUND(1/(C100-D100),2)*2 + D100*0.2+ E100*0.2 + F100 * 0.2 + H100 * 0.3 + G100*0.1 + (C100-10)*0.1</f>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>5</v>
       </c>
@@ -2953,8 +2969,11 @@
         <f aca="false">ROUND(1/(C101-D101),2)*2 + D101*0.2+ E101*0.2 + F101 * 0.2 + H101 * 0.3 + G101*0.1 + (C101-10)*0.1</f>
         <v>2.44</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J101" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>6</v>
       </c>
@@ -2983,8 +3002,11 @@
         <f aca="false">ROUND(1/(C102-D102),2)*2 + D102*0.2+ E102*0.2 + F102 * 0.2 + H102 * 0.3 + G102*0.1 + (C102-10)*0.1</f>
         <v>3.66</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J102" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>7</v>
       </c>
@@ -3013,8 +3035,12 @@
         <f aca="false">ROUND(1/(C103-D103),2)*2 + D103*0.2+ E103*0.2 + F103 * 0.2 + H103 * 0.3 + G103*0.1 + (C103-10)*0.1</f>
         <v>3.68</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J103" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>8</v>
       </c>
@@ -3043,6 +3069,9 @@
         <f aca="false">ROUND(1/(C104-D104),2)*2 + D104*0.2+ E104*0.2 + F104 * 0.2 + H104 * 0.3 + G104*0.1 + (C104-10)*0.1</f>
         <v>4.36</v>
       </c>
+      <c r="J104" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
@@ -3073,6 +3102,9 @@
         <f aca="false">ROUND(1/(C105-D105),2)*2 + D105*0.2+ E105*0.2 + F105 * 0.2 + H105 * 0.3 + G105*0.1 + (C105-10)*0.1</f>
         <v>5.4</v>
       </c>
+      <c r="J105" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
@@ -3085,23 +3117,26 @@
         <v>36</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I106" s="0" t="n">
-        <f aca="false">ROUND(1/(C106-D106),2)*2 + D106*0.2+ E106*0.2 + F106 * 0.2 + H106 * 0.3 + G106*0.1 + (C106-10)*0.1</f>
-        <v>7.68</v>
+        <f aca="false">ROUND(1/(C106-D106),2)*2 + D106*0.2+ E106*0.2 + F106 * 0.2 + H106 * 0.3 + G106*0.1 + (C106-10)*0.1 + 0</f>
+        <v>5.36</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,6 +3168,9 @@
         <f aca="false">ROUND(1/(C107-D107),2)*2 + D107*0.2+ E107*0.2 + F107 * 0.2 + H107 * 0.3 + G107*0.1 + (C107-10)*0.1</f>
         <v>7.94</v>
       </c>
+      <c r="J107" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
@@ -3163,6 +3201,9 @@
         <f aca="false">ROUND(1/(C108-D108),2)*2 + D108*0.2+ E108*0.2 + F108 * 0.2 + H108 * 0.3 + G108*0.1 + (C108-10)*0.1</f>
         <v>8.26</v>
       </c>
+      <c r="J108" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
@@ -3181,17 +3222,20 @@
         <v>3</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109" s="0" t="n">
         <f aca="false">ROUND(1/(C109-D109),2)*2 + D109*0.2+ E109*0.2 + F109 * 0.2 + H109 * 0.3 + G109*0.1 + (C109-10)*0.1</f>
-        <v>10.14</v>
+        <v>11.94</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,8 +3267,11 @@
         <f aca="false">ROUND(1/(C110-D110),2)*2 + D110*0.2+ E110*0.2 + F110 * 0.2 + H110 * 0.3 + G110*0.1 + (C110-10)*0.1</f>
         <v>2.02</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J110" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>15</v>
       </c>
@@ -3253,6 +3300,9 @@
         <f aca="false">ROUND(1/(C111-D111),2)*2 + D111*0.2+ E111*0.2 + F111 * 0.2 + H111 * 0.3 + G111*0.1 + (C111-10)*0.1</f>
         <v>3.7</v>
       </c>
+      <c r="J111" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -3283,6 +3333,9 @@
         <f aca="false">ROUND(1/(C112-D112),2)*2 + D112*0.2+ E112*0.2 + F112 * 0.2 + H112 * 0.3 + G112*0.1 + (C112-10)*0.1</f>
         <v>4.18</v>
       </c>
+      <c r="J112" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -3346,6 +3399,9 @@
         <f aca="false">ROUND(1/(C114-D114),2)*2 + D114*0.2+ E114*0.2 + F114 * 0.2 + H114 * 0.3 + G114*0.1 + (C114-10)*0.1</f>
         <v>4.92</v>
       </c>
+      <c r="J114" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -3376,6 +3432,9 @@
         <f aca="false">ROUND(1/(C115-D115),2)*2 + D115*0.2+ E115*0.2 + F115 * 0.2 + H115 * 0.3 + G115*0.1 + (C115-10)*0.1</f>
         <v>5.04</v>
       </c>
+      <c r="J115" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
@@ -3388,7 +3447,7 @@
         <v>30</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>1</v>
@@ -3397,14 +3456,17 @@
         <v>2</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I116" s="0" t="n">
         <f aca="false">ROUND(1/(C116-D116),2)*2 + D116*0.2+ E116*0.2 + F116 * 0.2 + H116 * 0.3 + G116*0.1 + (C116-10)*0.1</f>
-        <v>5.08</v>
+        <v>4.78</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,6 +3498,9 @@
         <f aca="false">ROUND(1/(C117-D117),2)*2 + D117*0.2+ E117*0.2 + F117 * 0.2 + H117 * 0.3 + G117*0.1 + (C117-10)*0.1</f>
         <v>5.84</v>
       </c>
+      <c r="J117" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
@@ -3466,6 +3531,9 @@
         <f aca="false">ROUND(1/(C118-D118),2)*2 + D118*0.2+ E118*0.2 + F118 * 0.2 + H118 * 0.3 + G118*0.1 + (C118-10)*0.1</f>
         <v>6.1</v>
       </c>
+      <c r="J118" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -3478,7 +3546,7 @@
         <v>24</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>3</v>
@@ -3490,11 +3558,14 @@
         <v>1</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" s="0" t="n">
         <f aca="false">ROUND(1/(C119-D119),2)*2 + D119*0.2+ E119*0.2 + F119 * 0.2 + H119 * 0.3 + G119*0.1 + (C119-10)*0.1</f>
-        <v>6.7</v>
+        <v>6.18</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,14 +3588,17 @@
         <v>2</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I120" s="0" t="n">
         <f aca="false">ROUND(1/(C120-D120),2)*2 + D120*0.2+ E120*0.2 + F120 * 0.2 + H120 * 0.3 + G120*0.1 + (C120-10)*0.1</f>
-        <v>6.72</v>
+        <v>5.82</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,6 +3630,9 @@
         <f aca="false">ROUND(1/(C121-D121),2)*2 + D121*0.2+ E121*0.2 + F121 * 0.2 + H121 * 0.3 + G121*0.1 + (C121-10)*0.1</f>
         <v>7.42</v>
       </c>
+      <c r="J121" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -3586,8 +3663,11 @@
         <f aca="false">ROUND(1/(C122-D122),2)*2 + D122*0.2+ E122*0.2 + F122 * 0.2 + H122 * 0.3 + G122*0.1 + (C122-10)*0.1</f>
         <v>8.06</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J122" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>27</v>
       </c>
@@ -3616,8 +3696,11 @@
         <f aca="false">ROUND(1/(C123-D123),2)*2 + D123*0.2+ E123*0.2 + F123 * 0.2 + H123 * 0.3 + G123*0.1 + (C123-10)*0.1</f>
         <v>8.18</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J123" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>28</v>
       </c>
@@ -3634,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>0</v>
@@ -3644,7 +3727,10 @@
       </c>
       <c r="I124" s="0" t="n">
         <f aca="false">ROUND(1/(C124-D124),2)*2 + D124*0.2+ E124*0.2 + F124 * 0.2 + H124 * 0.3 + G124*0.1 + (C124-10)*0.1</f>
-        <v>8.28</v>
+        <v>8.68</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,7 +3904,7 @@
         <v>4.7</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +5049,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J170" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
